--- a/medicine/Mort/Électricien_d'État/Électricien_d'État.xlsx
+++ b/medicine/Mort/Électricien_d'État/Électricien_d'État.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectricien_d%27%C3%89tat</t>
+          <t>Électricien_d'État</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électricien d'État ou électricien de l'État (en anglais State Electrician) est le titre officiel donné au bourreau de certains États américains qui utilisaient la chaise électrique comme moyen d'exécution.
-Le premier à avoir ce titre fut Edwin Davis (en), électricien de l'État de New York qui mena l'exécution de William Kemmler le 6 août 1890[1], le premier homme à être exécuté sur une chaise électrique. Davis conduisit également la première exécution d'une femme sur une chaise électrique, celle de Martha M. Place le 20 mars 1899.
+Le premier à avoir ce titre fut Edwin Davis (en), électricien de l'État de New York qui mena l'exécution de William Kemmler le 6 août 1890, le premier homme à être exécuté sur une chaise électrique. Davis conduisit également la première exécution d'une femme sur une chaise électrique, celle de Martha M. Place le 20 mars 1899.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lectricien_d%27%C3%89tat</t>
+          <t>Électricien_d'État</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Quelques électriciens d'État</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>John Hulbert (1867-1929), bourreau pour les États de New York, du New Jersey et du Massachusetts de 1913 à 1926.
-Robert G. Elliott (1874-1939)[2], bourreau de l'État de New York mais qui exécuta quelquefois pour les États voisins et pour le gouvernement fédéral.
-Joseph Francel (en)[3] (1895–1981), bourreau de l'État de New York de 1939 à 1953.
+Robert G. Elliott (1874-1939), bourreau de l'État de New York mais qui exécuta quelquefois pour les États voisins et pour le gouvernement fédéral.
+Joseph Francel (en) (1895–1981), bourreau de l'État de New York de 1939 à 1953.
 Dow Hover (1900-1990), dernier électricien de l'État de New York.</t>
         </is>
       </c>
